--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vip-Vipr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vip-Vipr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,16 +531,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1897233333333334</v>
+        <v>0.7349876666666667</v>
       </c>
       <c r="H2">
-        <v>0.5691700000000001</v>
+        <v>2.204963</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.3508273333333333</v>
+        <v>0.077915</v>
       </c>
       <c r="N2">
-        <v>1.052482</v>
+        <v>0.233745</v>
       </c>
       <c r="O2">
-        <v>0.1248367457344541</v>
+        <v>0.01344156357222124</v>
       </c>
       <c r="P2">
-        <v>0.1598401480061556</v>
+        <v>0.01898188492565723</v>
       </c>
       <c r="Q2">
-        <v>0.06656013110444445</v>
+        <v>0.05726656404833334</v>
       </c>
       <c r="R2">
-        <v>0.5990411799400001</v>
+        <v>0.515399076435</v>
       </c>
       <c r="S2">
-        <v>0.1248367457344541</v>
+        <v>0.01344156357222124</v>
       </c>
       <c r="T2">
-        <v>0.1598401480061556</v>
+        <v>0.01898188492565723</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +593,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1897233333333334</v>
+        <v>0.7349876666666667</v>
       </c>
       <c r="H3">
-        <v>0.5691700000000001</v>
+        <v>2.204963</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +623,22 @@
         <v>1.839557</v>
       </c>
       <c r="O3">
-        <v>0.2181930992387853</v>
+        <v>0.1057841766036689</v>
       </c>
       <c r="P3">
-        <v>0.2793730088930353</v>
+        <v>0.1493861228611831</v>
       </c>
       <c r="Q3">
-        <v>0.1163356286322222</v>
+        <v>0.4506839023767779</v>
       </c>
       <c r="R3">
-        <v>1.04702065769</v>
+        <v>4.056155121391001</v>
       </c>
       <c r="S3">
-        <v>0.2181930992387853</v>
+        <v>0.1057841766036689</v>
       </c>
       <c r="T3">
-        <v>0.2793730088930353</v>
+        <v>0.1493861228611831</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +655,114 @@
         <v>24</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.7349876666666667</v>
+      </c>
+      <c r="H4">
+        <v>2.204963</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.029863</v>
+      </c>
+      <c r="N4">
+        <v>0.089589</v>
+      </c>
+      <c r="O4">
+        <v>0.005151837424850708</v>
+      </c>
+      <c r="P4">
+        <v>0.007275313219982055</v>
+      </c>
+      <c r="Q4">
+        <v>0.02194893668966667</v>
+      </c>
+      <c r="R4">
+        <v>0.197540430207</v>
+      </c>
+      <c r="S4">
+        <v>0.005151837424850708</v>
+      </c>
+      <c r="T4">
+        <v>0.007275313219982055</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.7349876666666667</v>
+      </c>
+      <c r="H5">
+        <v>2.204963</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="F4">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G4">
-        <v>0.1897233333333334</v>
-      </c>
-      <c r="H4">
-        <v>0.5691700000000001</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1.846276</v>
-      </c>
-      <c r="N4">
-        <v>3.692552</v>
-      </c>
-      <c r="O4">
-        <v>0.6569701550267606</v>
-      </c>
-      <c r="P4">
-        <v>0.5607868431008092</v>
-      </c>
-      <c r="Q4">
-        <v>0.3502816369733334</v>
-      </c>
-      <c r="R4">
-        <v>2.10168982184</v>
-      </c>
-      <c r="S4">
-        <v>0.6569701550267606</v>
-      </c>
-      <c r="T4">
-        <v>0.5607868431008092</v>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>5.075609</v>
+      </c>
+      <c r="N5">
+        <v>10.151218</v>
+      </c>
+      <c r="O5">
+        <v>0.8756224223992591</v>
+      </c>
+      <c r="P5">
+        <v>0.8243566789931777</v>
+      </c>
+      <c r="Q5">
+        <v>3.730510015822333</v>
+      </c>
+      <c r="R5">
+        <v>22.383060094934</v>
+      </c>
+      <c r="S5">
+        <v>0.8756224223992591</v>
+      </c>
+      <c r="T5">
+        <v>0.8243566789931777</v>
       </c>
     </row>
   </sheetData>
